--- a/src/semeio/fmudesign/examples/ex5_single_reference.xlsx
+++ b/src/semeio/fmudesign/examples/ex5_single_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LGAZ/semeio/tests/fmudesign/data/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Appl\github\semeio\src\semeio\fmudesign\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557316B6-DC5A-3E43-934B-47A5A54BA14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F008D5-88FB-475A-B3B5-DE9BD196ABF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2520" windowWidth="21600" windowHeight="9460" tabRatio="987" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="987" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_input" sheetId="1" r:id="rId1"/>
@@ -21,243 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Specifies that this is a setup for a onebyone design</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Number of repeated seeds per sensitivity/sensitivity case. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>This is overrided if number of realisations is specified in the numreal column in designinput.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Alternatives:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- default gives seed numbers 1000, 1001, 1002, 1003,---
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- None (seed number is not added as parameter in spreadsheet) 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>- filename for file with list of seeds in ert/input/distributions/If only one seed is given in the external seed file, this is used for all realisations – NOT IMPLEMENTED YET</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Alternatives:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- None
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- name of sheet in this workbook with background parameters
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">- Name of external file with background parameters. Must end with .xlsx or .csv and be readable as pandas dataframe with parameter names as column headers.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Path is relative to where script is run from</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>numreal = repeats if not specified in table</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>For case sensitivitiesprovide names for case1 and case2 and values. Values can be string</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Distname and dist_param1, .. only for monte carlo sensitivities. Order of distribution parameters is predefined: 
-normal(mean, std dev,min, max) – where min/max is optional and will give truncated gaussian
-lognormal(mean, stddev, min, max) – where min/max is optional and will give truncated lognormal
-uniform(from,to)loguniform(from, to)triangular(low, mode, high)
-discrete((value1, value2, value3,..,value_n) (weight1, weight2, weight3,..weight_n))</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Default values are used both as default, i.e. (sent to design matrix default_values spreadsheet)  and as base case value for single sensitivities.
-Values can be strings or numbers</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>designtype</t>
   </si>
@@ -392,21 +157,6 @@
   </si>
   <si>
     <t>base</t>
-  </si>
-  <si>
-    <t>PARAM1</t>
-  </si>
-  <si>
-    <t>PARAM2</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>PARAM3</t>
-  </si>
-  <si>
-    <t>PARAM4</t>
   </si>
   <si>
     <t>rms_seeds</t>
@@ -419,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -432,13 +182,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1148,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1390,6 +1133,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2179,58 +1925,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10"/>
-    <col min="3" max="3" width="77.83203125"/>
-    <col min="4" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10" style="108"/>
+    <col min="3" max="3" width="77.85546875"/>
+    <col min="4" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="108">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="108" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="108" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="B5" s="108">
         <v>42</v>
       </c>
     </row>
@@ -2238,40 +1984,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125"/>
-    <col min="2" max="2" width="8.5"/>
-    <col min="3" max="3" width="8.33203125"/>
-    <col min="4" max="4" width="15.1640625"/>
+    <col min="1" max="1" width="10.85546875"/>
+    <col min="2" max="2" width="8.42578125"/>
+    <col min="3" max="3" width="8.28515625"/>
+    <col min="4" max="4" width="15.140625"/>
     <col min="5" max="5" width="10" style="2"/>
-    <col min="6" max="6" width="11.83203125" style="2"/>
-    <col min="7" max="7" width="9.83203125" style="2"/>
+    <col min="6" max="6" width="11.85546875" style="2"/>
+    <col min="7" max="7" width="9.85546875" style="2"/>
     <col min="8" max="8" width="7" style="2"/>
-    <col min="9" max="9" width="11.83203125"/>
-    <col min="10" max="10" width="11.5" style="2"/>
-    <col min="11" max="14" width="11.83203125" style="2"/>
-    <col min="15" max="17" width="11.83203125"/>
-    <col min="18" max="19" width="8.6640625"/>
-    <col min="20" max="20" width="9.83203125"/>
-    <col min="21" max="21" width="8.6640625"/>
-    <col min="22" max="22" width="9.83203125"/>
-    <col min="23" max="1025" width="8.6640625"/>
+    <col min="9" max="9" width="11.85546875"/>
+    <col min="10" max="10" width="11.42578125" style="2"/>
+    <col min="11" max="14" width="11.85546875" style="2"/>
+    <col min="15" max="17" width="11.85546875"/>
+    <col min="18" max="19" width="8.7109375"/>
+    <col min="20" max="20" width="9.85546875"/>
+    <col min="21" max="21" width="8.7109375"/>
+    <col min="22" max="22" width="9.85546875"/>
+    <col min="23" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2322,7 +2067,7 @@
       </c>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2346,7 +2091,7 @@
       <c r="O2" s="28"/>
       <c r="P2" s="29"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>23</v>
       </c>
@@ -2380,7 +2125,7 @@
       <c r="O3" s="41"/>
       <c r="P3" s="42"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>28</v>
       </c>
@@ -2410,7 +2155,7 @@
       <c r="O4" s="54"/>
       <c r="P4" s="55"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>31</v>
       </c>
@@ -2444,7 +2189,7 @@
       <c r="O5" s="67"/>
       <c r="P5" s="68"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="69"/>
       <c r="B6" s="70"/>
       <c r="C6" s="71"/>
@@ -2468,7 +2213,7 @@
       <c r="O6" s="80"/>
       <c r="P6" s="81"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
       <c r="B7" s="83"/>
       <c r="C7" s="84"/>
@@ -2492,7 +2237,7 @@
       <c r="O7" s="93"/>
       <c r="P7" s="94"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>37</v>
       </c>
@@ -2530,26 +2275,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625"/>
-    <col min="2" max="2" width="13.5" style="2"/>
-    <col min="3" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="15.140625"/>
+    <col min="2" max="2" width="13.42578125" style="2"/>
+    <col min="3" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2557,7 +2301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2565,7 +2309,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2573,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2581,7 +2325,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2589,7 +2333,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2597,7 +2341,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2605,50 +2349,17 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>